--- a/biology/Médecine/Splénectomie/Splénectomie.xlsx
+++ b/biology/Médecine/Splénectomie/Splénectomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spl%C3%A9nectomie</t>
+          <t>Splénectomie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La splénectomie est une ablation chirurgicale de la rate. La rate n'est pas indispensable à la vie. Pour cette raison, la splénectomie peut être indiquée dans différentes situations.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spl%C3%A9nectomie</t>
+          <t>Splénectomie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Autrefois, la splénectomie était un geste systématique à la moindre fissure splénique ; l'attitude actuelle est plus conservatrice, en raison des complications infectieuses potentielles.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Spl%C3%A9nectomie</t>
+          <t>Splénectomie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En cas de traumatisme de la rate, pour prévenir une rupture de la rate.
 Dans le cas de certaines formes de leucémie, notamment la leucémie lymphoïde chronique.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spl%C3%A9nectomie</t>
+          <t>Splénectomie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Conséquences de la splénectomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En dehors d'éventuelles complications opératoires (hémorragie per ou postopératoire), les principales complications de la splénectomie sont :
 infectieuses : il existe après splénectomie un risque d'infections bactériennes très sévères, pouvant engager le pronostic vital. Les germes en cause sont les pneumocoques, les méningocoques et l'Haemophilus influenzae. Ces infections doivent être prévenues :
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Spl%C3%A9nectomie</t>
+          <t>Splénectomie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Expression</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">« Courir comme un dératé ».
 Les Anciens attribuaient à la rate de nombreuses propriétés dont celle de provoquer les points de côté et de nuire par conséquent à la course. On croyait ainsi que les Anciens desséchaient la rate des coureurs et de leurs chevaux pour en améliorer les performances.
